--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/38_Iğdır_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/38_Iğdır_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{668AB8B7-42B0-4E2C-91A8-9231618351B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C66311-EDEB-41B1-B0E2-DA44CCE2BA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{17DD5070-AF94-40EB-A419-C4F1CE2D4E59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{6CBEF78D-0A3E-4AC5-97FF-E6C00FC1A6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -959,14 +959,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8F405EDB-5033-4AA1-B3DD-749BE689D5CD}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2DC86B4C-C703-432D-BAF8-AF425DA8BB1E}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{55160D16-8670-404F-BFAE-C6AC6B6366EB}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{9C27A9A9-845D-4B79-969D-05EED20A2C60}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{8CC90ECD-C319-4970-983E-C1A68332D69B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2A739947-4395-46DA-8732-355B6966794A}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{E0955A78-8282-4FDD-BE9B-DC7E2D1DE92F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{96D36755-620A-40EA-B07F-0E9DE1AFD7AB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{08107343-E3DA-41C4-A9F5-F6E067A68F77}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0CC4A8D6-9AD3-4094-83E3-79979A23AF66}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{3E17E0E5-891C-4B77-B350-B55C1E05C777}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{2F1C4579-F3C7-4D73-AE76-3EFF8F0E9FAD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E8C9CF6F-3F78-4B2B-8D52-430B99538E1F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7D22F45B-32FF-4FF1-AEFF-0C211117F8BD}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{8F83E3E6-6442-44EB-AFA7-8D53468C83E1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C12E94AD-8245-41C2-8B48-878F871745F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1336,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00805BE-D0A2-4B32-9BC2-B0C1E0FBC249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93414C5-D0A4-40CC-B199-44C2230415FB}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2624,18 +2624,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85F3FEF8-C3AE-4027-A214-E1DD308D3EE4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4E22BA7-1CAD-42E0-AF2C-C4B276B67AFE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1726CFC8-47B3-4187-AA7F-62C358604E81}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C456F446-0711-4860-99DD-0D4DF92510A0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8A2F655D-4909-4E79-98AB-8AB2D058F654}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6126A0A2-1154-4F5C-8401-1D16EFDFC0F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1503E1BA-D23B-46E4-86E5-8E96628051C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13E479DE-9AD3-476B-805C-1024AB616801}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F7122BC-9659-48BC-B316-F9F20EE4FDB0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C8F6C74-FD67-4243-99A9-B04D6CC8E389}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B9B5061-2310-4566-9931-E93610C7CD7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4983545A-99A1-4593-8537-34EBDD139636}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFDA27A5-D1AE-42B8-BF68-8E5CE6153B90}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31B17FB0-3356-4999-8386-7DE91A7E6551}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0948DFC1-657F-4680-B229-17A84A8D32DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{045D573B-0701-4404-AFAC-9C8A35600E64}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4338E076-78FF-4CF9-9E22-CF33006F4C03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90154D7F-BF21-469D-B560-12FF2298BE5E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B95BA99B-C3CB-4097-BC31-B9304519FF8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0860492-098D-48DC-B763-30887FC2A98E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F4910C1-1B6B-46D4-92F7-CBE455ED748F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD1EB284-852E-4332-AA25-DD4FC1D62AC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74FA6495-D06E-4103-B652-E75BA67AD569}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C62E088-C99E-42FD-9D4B-88FF731E48F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2648,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7BAB37-CA40-4477-A5E3-D0E1409ED8CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F36E296-2BF7-4AB1-8E3B-4B1F881A6AE6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3917,18 +3917,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{008C0FA7-7CC2-4A59-916A-6FE1F95E4024}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C73013DC-7FA6-480B-BFCE-8BF0F2DE2E0C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C7221510-F7FE-4167-A70C-0493C1DC13C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C195E922-99FA-447E-A070-B7E9C48D8D34}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{52F5105D-44AC-406D-8E6A-B53C9C0F6EE9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1367AC3-19C3-4306-9A63-FA39B53B0C62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{922ABBBA-992D-47B2-AEDB-FC8677DC063D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33536919-50CF-4015-A969-E62AC2A57B4E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{486B7466-E1AC-4ACE-85DC-34692F6988B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D10812B-CD0E-4869-B89B-1E10A328E6AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92E5A4FF-ACE8-4FC3-A4C4-A3318078F2D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83500DAC-0D65-4938-B186-4010E6F1FF77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B57AAD13-48F0-424A-98BD-AFC0569FF9C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4BD180A-A5A1-42A1-A155-08BE5CBA89DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{00D3C22E-0377-4258-AB72-5A810F4B8E08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C89136D7-A6D4-4DD6-85FA-D9420F81078D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{ADF31151-355E-41B4-AE32-FCCEC2C056AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{326CE28B-5BD7-49FF-A536-DD825D769D33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB7A01A8-C955-4071-83D7-D4CB6B44EB77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29DB9161-E76F-4009-8BA4-3928CF42C244}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69EC3EE5-A6EE-4849-A15F-2F57BF17FA19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C49927B6-0AC9-4E67-B19E-A852D4D2076D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22A93CC9-DBE0-491E-A22E-12181A6CB4F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF963330-3215-4D3D-BFA4-EB29177B7128}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3941,7 +3941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9176C922-5246-4036-9B33-CA9846B8BC46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD790D9-E95A-4685-9B98-C0CC454956D2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5210,18 +5210,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{408F7257-99F4-45DF-8E52-2D3C5F086E3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2879067B-D9EC-4EE5-AA36-991B2DB60484}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{536DF655-C58F-44DD-8B09-D388349ADE9E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E72A57DF-A091-4AEF-A91F-4DAFDF0126C2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4D594918-CB9C-47C7-A98A-5F2E4F60C69D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95F4961B-8B3A-4AEB-AFCA-4E2F5DD0E268}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{342511D6-AA2C-419D-9771-24B712408A98}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2073764E-169B-4250-B636-F50539FBBB90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F337A07-FA8F-4B65-9352-CFB99A0ACD1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96AE265F-A943-47AB-AC8B-326E0B1E59BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{125798BC-CF51-4D66-B82A-0996FCA2FF3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33E20D85-A2F7-42DA-BA57-92A78F0FA313}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34ACF7E8-40AE-4850-9F4B-9B82319D85F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{051055E0-A82C-49DE-B2A0-ACA04D272BDC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D6ED4D5-9246-45FE-88F5-8B6733747E32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{627114FD-1A0B-4A56-9FCC-012E71DA6917}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B288B248-3BBF-4954-84C6-E33E2B911485}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A09F4275-6332-4698-8FBC-7C4EBE9DC31F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{251D2EAB-5FF6-4F34-868F-B057B3F3F707}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9D26DB3-A2AC-4CF3-A776-AF249811EFB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2710485-0DBB-40C2-9932-C6D3DCCE9A32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3AC42E8-5FA2-4D1D-9129-A3E0BB68FFF6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06E92DC4-3434-4E2B-A74A-7C686669E2F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDDCED4C-F911-4B5B-B78B-EEF97707747F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5234,7 +5234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60ABDB5-DF1B-48B8-B30E-AB51AB1B2B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE7989D-61B9-485E-A4CE-21AD4373993F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6493,18 +6493,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{118FCB8B-94A8-4733-834C-42115F9751BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38F6A0DC-C1DA-470C-A565-24ED5C35C42F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C81CB72-96A0-4D29-A245-F01EA83B4BB5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE9D065A-20A0-4CA9-930D-000665AE5AAA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7E00D56A-3A81-481A-8BDE-2B2EBD036532}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F388A01C-A012-4E03-B3E8-4AC6DF8226C2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{461719B0-D10A-4E66-B2FF-7FCEB3BC6A9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6449C5E2-2D14-45EC-8C12-6E1D6DBEDD25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B187AC68-83CF-47F2-9628-6D25D2F137CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F6582FF-B115-4540-B6C2-82B6D324D66B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58B11575-42DA-450B-B7A6-2CFBC142C5EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F952BC35-C346-4AD1-9D66-DDBF6E9192D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5095F4E9-5D5D-408A-A15A-6ED1572C3894}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18A21839-AA83-47F2-9AA6-96250D67F24A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29EC3A3A-BB26-49AA-A485-F755D794B854}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C9008A9-CC80-4CEB-BCBF-60F373CD71EA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FC1DE585-E69D-4EC2-95C0-B24FB2F441AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D74C20E2-A768-41FA-A0D7-3C035D9EAFA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B823974-A7A9-4851-99B9-45B8BE26229B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8085D937-128F-4960-A767-6754F9B8247D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30EB9D69-9F35-42B8-B4A2-F1657F8EC6A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29C08380-BE3C-490A-BD2E-A28253AB1F08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49C4030F-B4DD-48A1-AE90-B84983E5FAB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5C5218D-EE4B-4776-AFF0-E4D85FFC9010}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6517,7 +6517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20468D4A-0876-425C-ADD6-D1BB038D1981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E788CE-4847-462B-B4C8-3481A6DB0563}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7802,18 +7802,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4C52803-4D59-4B33-8067-95F29D98F0A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F75DD55-5808-4F1C-8D5E-9C2D230762A0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29C3ED19-E06F-4DA7-A160-33D4103E6E28}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05A7C23A-1335-49F9-9FA8-5247AC2D1714}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F07DE839-C2C9-44B7-8CF7-ED6E6220F06A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBE632AA-BAD9-4642-8B31-035C02CD6637}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9F3EDE1-A4FD-4A48-B894-1643DE9BA360}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E109079D-085F-44CC-91CC-99014DF005A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54D94054-F6CD-48F2-9336-375E3F4671E2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8FE2B01-C9E6-4EBA-B183-45EDC94B7B03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B111650-8F32-46FD-B6DC-A236B7345EB3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{522CFBF0-B481-422A-8828-B0383C68B182}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{417CA116-3F43-4108-919A-1351E09B6F6C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9903AE82-70F6-4FF3-85AB-FB7179DDD9AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1976C59D-E56D-41B5-BF1A-C0CD87FC8B65}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBC624F4-E0AE-4D7B-9EFB-12F4BAD51DF4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{65E9A33A-D082-44EC-BCAD-4F2BC2F6C7A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78BA6F36-C33D-48AC-89F9-E28306974917}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8A3CA8A-883E-4C57-972D-11FD6D482123}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02CF256E-4A07-4661-89E3-282DC245C04B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8844132A-94E3-41D6-93A2-EF9952510D99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DC262F5-E57B-4B4E-86A0-EDB17533DCFC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55F273CD-E249-4E9A-9585-C10551CAEC1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9421FEF8-C247-4173-94D4-A1E7D415FE4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7826,7 +7826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A983397-6D49-45EC-B5DE-2BB567899C1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7725A569-702D-4772-9389-0FE0E49E9C57}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9111,18 +9111,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42FE4090-7681-48AD-B86A-66001820329A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{486D3AB9-1A6A-4F95-8BD2-C03F6A1F43D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7384A78-A2B2-410F-A961-4736B93740F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F723514D-B79E-4995-89AB-818F779BBDA9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0ABE3048-A520-4CAB-872F-64D3CF7C0268}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B41E357-14AA-4D4C-B2D3-78AEF2AC088F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4080555B-16E7-42C9-88A2-6DCAA228C0D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A75E8B5-08CC-4FCA-A88D-A3B836AC097C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5F75C87-05AA-430D-963E-61AF641F559D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C7DA6E9-94D6-440D-8CE5-D20E46AF78E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A200964-95E3-4292-BA67-4A2FE4A92C2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD9986C1-B815-45CE-AF22-30C7C64DC56A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ED6E944-CC81-44BD-8F99-7FF74914F03F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D15412DB-31AA-42CA-8E00-C1AB2F16B02D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CEA2CB09-294B-4156-92DE-0E971AA3319C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65FD7C02-AC3C-4D8D-8B25-9255B79FD493}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5EBDC7DA-90FC-4B7A-A706-E28BFB8B4509}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{583C88B5-C290-4196-BD33-EF2C58B0C548}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFEC53E1-0265-4306-962B-6542D1AC930A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A49D5D1F-4BB2-461D-900C-C87B50296341}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CBAA40F-6519-46CF-A7F1-FD1165BA0C46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{982125BC-C824-4EEA-A67F-FA8AF689C86D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{866BB6DD-0321-48F6-86D8-C66262BECFC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6363314-0806-46F4-8391-B2930A04A8E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9135,7 +9135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50656573-DE5A-4BB1-856D-11CD94725EA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A67D49-F26C-425C-8EE4-E74A9D11806F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10420,18 +10420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B8E78C1-9746-42A1-A4C8-B7C325C594DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17BE1ADF-108B-4BE5-BB6B-BEF9E62B90F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DD3CE6AA-DBAD-4252-A69E-348A0706918A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5495C22A-79AC-4565-9DAB-50AA89849B8A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0E0E8628-C2E7-40ED-9765-C9C4A58985A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECCF1451-0EC8-4664-93E6-C755CBAB2C6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89D470DD-4F19-4E38-AF3D-3C678312553E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBA87468-4654-4B9F-8789-BAD627C4A662}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3300C6C-5C46-41D6-A114-F73915152E56}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{185E26A0-FC00-4F17-AD57-BC3ADD216312}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C93976E8-D0EF-4D65-9314-A4EAD0FD5C38}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FBC81AC-F2DB-4212-8987-633488C21A87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E054718-1F21-47CC-96AE-0821FC852EDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0C6C242-DDFC-4285-9B6B-48F2506F0524}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E966EA06-81CE-4696-AAB4-5E22D21FE13A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E117049-6FBD-4AB8-9B2C-089104DCF58F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EA17B07D-4612-47CA-939B-C8C6458BFC75}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9EA47810-A5FC-4CAC-A80A-D01BE096E797}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82544E6C-7471-4318-BA73-9D6CD8B70826}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CFF75F3-BAE6-406B-83A5-CB79D9B0D6F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7EF33BA-F7CE-4288-8F89-A6C2AF7E1F3B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C104DD1-249A-4AE6-AFFB-44870E72C385}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E0E8DA6-60AC-4B65-80A0-DBA2C86B0F96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D22A557-B079-495A-95DE-D3FA768D37DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10444,7 +10444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001395AD-CAEB-4BDA-98D2-F7FA8DF2C154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5204E62-02E0-4726-B0B8-70B77314877B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11725,18 +11725,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BE87C52-22FE-468D-8F97-86CB4203D9FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C3D83E4-6725-4E76-82CF-FDBD10EAAE7A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3331265-4B5E-4E79-BF0C-29CC462145C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4D28A6C-6258-4E6F-9D04-19DFEEA0A8E6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9B240271-6DBC-43EF-A3C1-117F25576AF7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F84F739B-4BCE-42CD-BA6C-6EF50F96597D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62935FC5-C970-4055-A055-99A938F2D651}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3437780B-5BC9-488F-8502-FAB725E37877}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0171F97-9E8D-4C2B-B68E-A61631EC36EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{923F4E23-5611-4271-83AF-E17F965173DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0E1D2A0-687B-4A6B-AC61-8FDDA647D492}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30C2EFFE-6D36-4B89-A8D4-C2EF6C8023DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30176EB9-ECC4-44D7-850D-5E452F323859}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{024CC719-672B-4C83-A109-1E564684CD76}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{980954C6-BAC9-4BDE-B94E-B2A4D212ACD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8293FC44-180A-4B36-BE1F-6E0458AC4182}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{29369F55-56BB-4DEB-97DB-98F9A0BACD27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F69B437-AAAC-4946-A8B6-343FE613D831}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E48F057-3BFB-46DF-8984-5DCFB93A0600}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA67A295-3DC4-4D69-867B-F1AAB04F5EC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7FF64F9-3339-4693-A3F5-FD58DF34B94E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA7E49AF-E10B-4E32-BEFC-CC9136EF4D6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA24E516-63CA-4B81-845F-3550734F9DCE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A445C826-4207-4E77-A38D-8A4F0FD8BF2F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11749,7 +11749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883B77B-3ED3-4B33-A849-DA96B67EACB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83132F0A-38FE-494B-ACFB-DE52581A85F2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13030,18 +13030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28442BD1-0F6E-432C-BEBF-3705362E0F4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E7331CF-9FC0-4532-9139-84D8CED2330D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A031DF67-0C4D-4423-B8AC-5070AF6F130A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06E05571-3B10-46AE-B58B-D078AD537CDD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{30F87FA9-A10A-453B-981F-7CE2E67554FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0AC3EEB-271F-452B-ABEE-A4FBF4BAA4C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EF50490-0500-432C-BD74-BF056112B45E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D084C48-2849-41D9-B07B-941F8E8DA40A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DF0B971-2250-49E8-A818-978124642A49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5760E009-F70A-41AB-89AD-A8308F637E0D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E4178AD-2D58-4E84-AF4D-FA36BFFB8B2D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66222223-F6DB-4B56-A09E-FAFF9F7E2E98}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77223103-1DA8-4409-98AE-0BA53E386189}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CB2652E-AFF4-4EB9-8D1E-0A93BCBF7535}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD8F22DB-1D10-48C7-A137-5DC7ACCAD569}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{060220EA-B791-4016-A311-83DED5A49BDE}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F3F195BB-6FFB-4851-A67C-9BB70208D663}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D18558E-AE0F-43B1-BC1E-6CABF0C9BE7C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17BC33AD-94F3-47FF-B2BF-87CDC8314391}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{571B410B-71C6-4219-8A14-1E56E41D6224}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7602D2B3-0D57-4E7A-A70C-2B8174F1665B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16715A11-82A1-497E-AC42-13F024E07B2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BD2EE4D-D938-4FAD-81B4-5B39CEC36B3B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75D2DA62-C20A-40A8-B26C-C362C9743DF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13054,7 +13054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81388BD5-482A-4CCF-B14C-70743B236495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAA50DF-A78C-4A27-9CC7-90D6936314B5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14335,18 +14335,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA85F77F-3023-4AFE-9B05-638228FF6FA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEBF307F-76B1-42D2-87B8-26200DE66A98}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D87F55E2-4CE3-4D17-9EF0-63D4BEE208F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADC72E4D-2624-46E9-8E92-9B636D6B7F62}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3F9C9598-4DFC-4EF2-B854-2F3C11A46B9D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{241959A5-0C86-4DBD-97F9-CC2BCC148B4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98B4D038-E2ED-46EB-8254-DFB0CE56B079}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F728B8F-8F73-4E05-A4D8-ADEE721F5FD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E60AC794-29DD-40BA-9BC7-B41959960334}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{115D6824-6D65-4475-8652-55C367F23EF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4D2600B-2265-470B-8DA8-6E5DE603FD46}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48EA0727-A683-4C9C-8C1C-8A8F7642AB5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A07B3F26-961B-402A-80D7-2CE745DF4895}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27F916F5-CFDD-4759-B4DD-468C52EEA5B5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A07CE56-4680-4ED6-BF26-F9375528142A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D8A8446-D3E1-4EFF-9CE7-A7F66D569B1C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{33C17920-9612-4021-B0F2-1ABE6DC6300C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1C7D7DD-232D-40A2-8BE1-7F0810919109}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9D7C19B-FFBA-46F0-9482-498FCB801996}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEF3C516-EF05-433E-A1B3-D0F0CC9126B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F57FB2EF-89F0-4707-ACDF-27C0760D4A2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED5C58A3-EFF7-49AD-9F18-E80365C58CC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B5F6AE1-B815-4946-AB23-A10BB8EA55F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B524F18A-C18B-4C5F-A381-C7D392AF6BF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14359,7 +14359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEE51B-CDA5-417F-981C-E310E1543E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3423D2-E719-4B09-A279-D6739D716F50}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15636,18 +15636,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6AF3735-94FE-4161-8776-07202F5B5A97}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBA323E8-BB28-40AF-85C9-7E6C9FE5CE99}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4ABA28E-DEA3-4B86-AC22-7C52D1181015}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D6C30D9-5B71-4406-81D0-CD750A099D6E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{69A3452F-D25C-415D-9482-7DA8D07F0503}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE422C83-A3AE-4AE2-B0DC-2D0542D1A29E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B8541B7-4241-47EB-96E5-7588F816E0EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1D0661E-79B2-4FAE-92A6-08CDF1DE0964}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{011B4D45-C212-4D46-BA2B-8F56C9D5D290}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1437529D-9918-4EDD-8044-4BF0CE42E3E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89F8C9FA-9FBF-4E3D-92E6-1DA150B7D83F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F08DD92-BB45-4EE1-BB08-AB1BBA9EBA92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60BE58C9-2671-49B7-A4FD-B2CA23A245D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C8313BC-09C3-42AB-B060-8C31D5AB814A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{248046A5-CC6E-46D9-A778-4A9C15DE2101}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88C87146-EBD5-4A6C-9CC0-348D79BFAB87}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4FBFAADE-88C2-487B-8B94-0970F8E53A26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A42F28B-BBEB-4EF0-90D6-F2AC1B2A6818}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B76DE2CF-5E23-41A4-B616-0A5BAAB6DE79}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E435B130-7F80-449B-B2A0-EC15B3AF973A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8EAF87E8-0157-49D0-A991-1DCC01EE34AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42653C31-C337-4FB7-803E-CA176D2162CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DE54E98-BF9D-40C8-A6D2-8E7513067763}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22E1C281-8305-4F03-A1D2-5688F79D6117}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15660,7 +15660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A663C7-8743-4861-B131-CE889C6F7063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D879701-BE64-4F95-A0FD-6949794625CC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16937,18 +16937,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51F2698F-4C79-4444-B1A8-C0B3BDFE5B60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE89229B-92F3-4485-AB46-1C80AB601A76}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{155F184E-83A6-40F5-9EB4-4AECCEA19DFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A885BEBB-2CD8-4406-BD36-EF673B8F0BB8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{448F5439-2390-48B0-BFD3-5B0FED0EDBF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5C7C57A-997B-41E6-9563-15DFF73492F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DE51D13-25D0-4FF1-BCBB-8C40B5438DC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E8E8B0D-3A45-4C58-8701-61297DE33F7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B94FC431-1D71-4A98-AE64-9273903BD097}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CF7DDE2-2349-45A4-8C02-17987125712F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C57D63E4-8F41-4F4A-8A9C-8CB4A1F4B731}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BB815CD-A05B-443D-87C4-90CD19E378F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FAB57BB-9BB8-4621-A61E-C32A99EE4428}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFC72671-CA24-4F55-80B4-62B36816F26F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9392952F-75A3-4D12-BDA3-6710E145DFCD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE585D45-7C44-44A0-A898-437D948E9949}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{88E50E48-70CE-410E-91B7-4E319B288D59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A527ABC-6F8C-4EE8-9E26-4D4BB1CDB17F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A93A213A-2D9C-4F75-9788-F12B09D6AEB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6E01DA5-5CE0-4BC1-93A5-3209055057D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE1EAE24-DA5F-4E1A-9FCA-30836D31981F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06C811C1-7BD0-4CAF-B138-9297B3D60567}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6689392B-4A2F-4264-9718-C23FEE6F8559}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1FFD173-5DAE-4783-869F-65CD3FA54B82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
